--- a/biology/Zoologie/Carcharhiniformes/Carcharhiniformes.xlsx
+++ b/biology/Zoologie/Carcharhiniformes/Carcharhiniformes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Carcharhiniformes forment un ordre qui regroupe plus de 270 espèces de requins. 
 </t>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils se caractérisent par la présence d'une membrane nictitante sur l'œil, deux nageoires dorsales (sans épine), une nageoire anale, et cinq fentes branchiales dépourvues de peignes branchiaux[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils se caractérisent par la présence d'une membrane nictitante sur l'œil, deux nageoires dorsales (sans épine), une nageoire anale, et cinq fentes branchiales dépourvues de peignes branchiaux.
 Les Carcharhinidae et les Sphyrnidae (requin marteau) sont principalement de type vivipare placentaire (ou vivipare gestant), c'est-à-dire qu'ils possèdent un placenta vitellin comme les mammifères placentaires.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les familles qui le composent, au vu des analyses d'ADN récente, devraient être révisées. Le groupe traditionnel ne semble pas être monophylétique.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (8 novembre 2023)[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (8 novembre 2023)
 famille Carcharhinidae Jordan &amp; Evermann, 1896
 famille Galeocerdonidae Poey, 1875
 famille Hemigaleidae Hasse, 1879
@@ -587,7 +605,7 @@
 famille Scyliorhinidae Gill, 1862
 famille Sphyrnidae Gill, 1872
 famille Triakidae Gray, 1851
-Selon FishBase                                            (6 janvier 2014)[4],  NCBI  (6 janvier 2014)[5], ITIS      (6 janvier 2014)[6] et Paleobiology Database                   (6 janvier 2014)[7] :
+Selon FishBase                                            (6 janvier 2014),  NCBI  (6 janvier 2014), ITIS      (6 janvier 2014) et Paleobiology Database                   (6 janvier 2014) :
 famille Carcharhinidae Jordan &amp; Evermann, 1896
 famille Hemigaleidae Hasse, 1879
 famille Leptochariidae Gray, 1851
@@ -605,8 +623,43 @@
 			Cephaloscyllium laticeps, un Scyliorhinidae
 			Sphyrna lewini, un Sphyrnidae
 			Triakis semifasciata, un Triakidae
-Familles et genres
-Selon World Register of Marine Species                               (1er février 2016)[2] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Carcharhiniformes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carcharhiniformes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des familles</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Familles et genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (1er février 2016) :
 famille Carcharhinidae Jordan et Evermann, 1896
 genre Carcharhinus Blainville, 1816
 genre Galeocerdo Müller et Henle, 1837
